--- a/pcb/BOM/NDS_TV_OUT_V1I2.xlsx
+++ b/pcb/BOM/NDS_TV_OUT_V1I2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>Comment</t>
   </si>
@@ -185,9 +185,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>CRCW060375R0FKEA</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -239,13 +236,19 @@
     <t>C1206</t>
   </si>
   <si>
-    <t>GRM319R71H104KA01D</t>
-  </si>
-  <si>
     <t>https://es.aliexpress.com/item/4000499971802.html?spm=a2g0s.9042311.0.0.415d63c0FOSqsK</t>
   </si>
   <si>
     <t>Ribbon Cable FPC 0,3mm pitch 45 pin</t>
+  </si>
+  <si>
+    <t>RC0603FR-0775RL</t>
+  </si>
+  <si>
+    <t>C1206C104K5RAC7210</t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/Wire-Cable/FFC-FPC-Jumper-Cables/_/N-ad930?P=1y9j0ziZ1z0wxp5</t>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -630,7 +634,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,115 +948,115 @@
         <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1062,15 +1066,19 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G18" r:id="rId1"/>
+    <hyperlink ref="H18" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="39" orientation="landscape" blackAndWhite="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="39" orientation="landscape" blackAndWhite="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>